--- a/Code/Results/Cases/Case_0_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012929162000058</v>
+        <v>1.04882852104406</v>
       </c>
       <c r="D2">
-        <v>1.027513723027337</v>
+        <v>1.058826362515135</v>
       </c>
       <c r="E2">
-        <v>1.026025472500559</v>
+        <v>1.05629583397662</v>
       </c>
       <c r="F2">
-        <v>1.033542344378533</v>
+        <v>1.067509638405109</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047111287971481</v>
+        <v>1.036406751670986</v>
       </c>
       <c r="J2">
-        <v>1.034729923076218</v>
+        <v>1.053870200571587</v>
       </c>
       <c r="K2">
-        <v>1.038602607059145</v>
+        <v>1.061557536056161</v>
       </c>
       <c r="L2">
-        <v>1.037133757801873</v>
+        <v>1.059033935497222</v>
       </c>
       <c r="M2">
-        <v>1.044553352164084</v>
+        <v>1.070217309409141</v>
       </c>
       <c r="N2">
-        <v>1.036199358252175</v>
+        <v>1.055366817137001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01793007610008</v>
+        <v>1.049891122660022</v>
       </c>
       <c r="D3">
-        <v>1.031995242149368</v>
+        <v>1.059832868492836</v>
       </c>
       <c r="E3">
-        <v>1.030290999916233</v>
+        <v>1.057255794729825</v>
       </c>
       <c r="F3">
-        <v>1.038290984134408</v>
+        <v>1.068587750771924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048078837898932</v>
+        <v>1.036539604502645</v>
       </c>
       <c r="J3">
-        <v>1.037943603253476</v>
+        <v>1.054581282238466</v>
       </c>
       <c r="K3">
-        <v>1.042234472504176</v>
+        <v>1.062377664003399</v>
       </c>
       <c r="L3">
-        <v>1.040550433998796</v>
+        <v>1.059807134467283</v>
       </c>
       <c r="M3">
-        <v>1.048456289969774</v>
+        <v>1.071110568008695</v>
       </c>
       <c r="N3">
-        <v>1.039417602223891</v>
+        <v>1.056078908621408</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021096873463401</v>
+        <v>1.050578959081715</v>
       </c>
       <c r="D4">
-        <v>1.034838563394614</v>
+        <v>1.060484730195321</v>
       </c>
       <c r="E4">
-        <v>1.032998142003976</v>
+        <v>1.057877569342166</v>
       </c>
       <c r="F4">
-        <v>1.041305129047651</v>
+        <v>1.069286178914241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048679369181907</v>
+        <v>1.036624076224236</v>
       </c>
       <c r="J4">
-        <v>1.039975892863726</v>
+        <v>1.055041071068849</v>
       </c>
       <c r="K4">
-        <v>1.044533942170104</v>
+        <v>1.062908312681881</v>
       </c>
       <c r="L4">
-        <v>1.042713975369023</v>
+        <v>1.060307438448018</v>
       </c>
       <c r="M4">
-        <v>1.050929341907813</v>
+        <v>1.071688781656671</v>
       </c>
       <c r="N4">
-        <v>1.041452777918495</v>
+        <v>1.056539350404669</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022412278708875</v>
+        <v>1.050868188130886</v>
       </c>
       <c r="D5">
-        <v>1.03602086561838</v>
+        <v>1.060758912318741</v>
       </c>
       <c r="E5">
-        <v>1.034124018506996</v>
+        <v>1.058139110171916</v>
       </c>
       <c r="F5">
-        <v>1.042558791660163</v>
+        <v>1.069579993215742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048925849850636</v>
+        <v>1.036659230369237</v>
       </c>
       <c r="J5">
-        <v>1.040819352528106</v>
+        <v>1.055234287177611</v>
       </c>
       <c r="K5">
-        <v>1.045488948143835</v>
+        <v>1.063131389952974</v>
       </c>
       <c r="L5">
-        <v>1.043612602122272</v>
+        <v>1.060517763954234</v>
       </c>
       <c r="M5">
-        <v>1.051956912190578</v>
+        <v>1.071931913767783</v>
       </c>
       <c r="N5">
-        <v>1.042297435392344</v>
+        <v>1.056732840902468</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022632225468562</v>
+        <v>1.050916754629007</v>
       </c>
       <c r="D6">
-        <v>1.03621862936667</v>
+        <v>1.060804956864716</v>
       </c>
       <c r="E6">
-        <v>1.034312355508289</v>
+        <v>1.058183032616775</v>
       </c>
       <c r="F6">
-        <v>1.042768511360211</v>
+        <v>1.069629337354825</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048966887891104</v>
+        <v>1.036665111915</v>
       </c>
       <c r="J6">
-        <v>1.040960343715028</v>
+        <v>1.055266724359797</v>
       </c>
       <c r="K6">
-        <v>1.045648624087804</v>
+        <v>1.063168845157865</v>
       </c>
       <c r="L6">
-        <v>1.043762855816645</v>
+        <v>1.060553078383502</v>
       </c>
       <c r="M6">
-        <v>1.052128748708911</v>
+        <v>1.071972739700076</v>
       </c>
       <c r="N6">
-        <v>1.042438626802924</v>
+        <v>1.056765324149173</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021114511699716</v>
+        <v>1.050582823528544</v>
       </c>
       <c r="D7">
-        <v>1.034854411928942</v>
+        <v>1.06048839328302</v>
       </c>
       <c r="E7">
-        <v>1.033013233380309</v>
+        <v>1.057881063487586</v>
       </c>
       <c r="F7">
-        <v>1.041321932847854</v>
+        <v>1.069290104109372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048682686007616</v>
+        <v>1.03662454736186</v>
       </c>
       <c r="J7">
-        <v>1.0399872056133</v>
+        <v>1.055043653143397</v>
       </c>
       <c r="K7">
-        <v>1.044546748403905</v>
+        <v>1.062911293481136</v>
       </c>
       <c r="L7">
-        <v>1.042726025291127</v>
+        <v>1.060310248837344</v>
       </c>
       <c r="M7">
-        <v>1.050943119325793</v>
+        <v>1.071692030199732</v>
       </c>
       <c r="N7">
-        <v>1.041464106733471</v>
+        <v>1.056541936146059</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014633950113789</v>
+        <v>1.049187577879113</v>
       </c>
       <c r="D8">
-        <v>1.029040286802851</v>
+        <v>1.059166394430653</v>
       </c>
       <c r="E8">
-        <v>1.027478278415614</v>
+        <v>1.056620129311719</v>
       </c>
       <c r="F8">
-        <v>1.035159619896128</v>
+        <v>1.067873821949647</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04744364523676</v>
+        <v>1.03645195881928</v>
       </c>
       <c r="J8">
-        <v>1.035826004374585</v>
+        <v>1.054110581704348</v>
       </c>
       <c r="K8">
-        <v>1.039840748261805</v>
+        <v>1.061834707825495</v>
       </c>
       <c r="L8">
-        <v>1.038298471205618</v>
+        <v>1.059295242950705</v>
       </c>
       <c r="M8">
-        <v>1.045883496350709</v>
+        <v>1.070519145378617</v>
       </c>
       <c r="N8">
-        <v>1.0372969961117</v>
+        <v>1.055607539638542</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002654629398394</v>
+        <v>1.046730989929834</v>
       </c>
       <c r="D9">
-        <v>1.01833823438173</v>
+        <v>1.056841370129058</v>
       </c>
       <c r="E9">
-        <v>1.017297201405811</v>
+        <v>1.054402946771389</v>
       </c>
       <c r="F9">
-        <v>1.023827105230982</v>
+        <v>1.065384436394245</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045058411521681</v>
+        <v>1.036136417069307</v>
       </c>
       <c r="J9">
-        <v>1.02811399286678</v>
+        <v>1.052463894238444</v>
       </c>
       <c r="K9">
-        <v>1.031140631558382</v>
+        <v>1.059937426660132</v>
       </c>
       <c r="L9">
-        <v>1.030115741503429</v>
+        <v>1.057506637725867</v>
       </c>
       <c r="M9">
-        <v>1.036545080845266</v>
+        <v>1.068454046524498</v>
       </c>
       <c r="N9">
-        <v>1.029574032662974</v>
+        <v>1.053958513687558</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9942466248494625</v>
+        <v>1.045094622896023</v>
       </c>
       <c r="D10">
-        <v>1.010860588289515</v>
+        <v>1.055294416718524</v>
       </c>
       <c r="E10">
-        <v>1.010188818776377</v>
+        <v>1.052928051092529</v>
       </c>
       <c r="F10">
-        <v>1.015915644111367</v>
+        <v>1.063729102356286</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043323065227459</v>
+        <v>1.035918398876922</v>
       </c>
       <c r="J10">
-        <v>1.022690385218665</v>
+        <v>1.051364449320434</v>
       </c>
       <c r="K10">
-        <v>1.025036481648878</v>
+        <v>1.058672465996577</v>
       </c>
       <c r="L10">
-        <v>1.024376515912796</v>
+        <v>1.056314238365273</v>
       </c>
       <c r="M10">
-        <v>1.03000336212884</v>
+        <v>1.067078468195239</v>
       </c>
       <c r="N10">
-        <v>1.024142722869902</v>
+        <v>1.052857507431657</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9904946914459478</v>
+        <v>1.044386380138244</v>
       </c>
       <c r="D11">
-        <v>1.007532607227236</v>
+        <v>1.054625301487968</v>
       </c>
       <c r="E11">
-        <v>1.007026533513129</v>
+        <v>1.052290177107781</v>
       </c>
       <c r="F11">
-        <v>1.012396091792398</v>
+        <v>1.063013339776131</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042534886675011</v>
+        <v>1.035822182500949</v>
       </c>
       <c r="J11">
-        <v>1.02026831936501</v>
+        <v>1.050887990113396</v>
       </c>
       <c r="K11">
-        <v>1.022313854090534</v>
+        <v>1.058124703999186</v>
       </c>
       <c r="L11">
-        <v>1.021817145191671</v>
+        <v>1.055797922523215</v>
       </c>
       <c r="M11">
-        <v>1.027087962002375</v>
+        <v>1.066483106752649</v>
       </c>
       <c r="N11">
-        <v>1.02171721740492</v>
+        <v>1.052380371597894</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9890833132129941</v>
+        <v>1.044123354455663</v>
       </c>
       <c r="D12">
-        <v>1.006282099156474</v>
+        <v>1.054376871763306</v>
       </c>
       <c r="E12">
-        <v>1.005838499481551</v>
+        <v>1.052053357815836</v>
       </c>
       <c r="F12">
-        <v>1.011073817517897</v>
+        <v>1.062747625505037</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042236383483608</v>
+        <v>1.035786171346674</v>
       </c>
       <c r="J12">
-        <v>1.019356982033129</v>
+        <v>1.050710953314083</v>
       </c>
       <c r="K12">
-        <v>1.02128992567208</v>
+        <v>1.057921237286202</v>
       </c>
       <c r="L12">
-        <v>1.020854691419449</v>
+        <v>1.055606140324486</v>
       </c>
       <c r="M12">
-        <v>1.02599189201318</v>
+        <v>1.066262004381355</v>
       </c>
       <c r="N12">
-        <v>1.020804585869496</v>
+        <v>1.05220308338602</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9893868790635947</v>
+        <v>1.04417977222268</v>
       </c>
       <c r="D13">
-        <v>1.006551000327294</v>
+        <v>1.054430155822305</v>
       </c>
       <c r="E13">
-        <v>1.006093956857876</v>
+        <v>1.052104151123066</v>
       </c>
       <c r="F13">
-        <v>1.011358141116794</v>
+        <v>1.062804615241815</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042300676758562</v>
+        <v>1.035793908170422</v>
       </c>
       <c r="J13">
-        <v>1.019553005672566</v>
+        <v>1.050748930956994</v>
       </c>
       <c r="K13">
-        <v>1.021510144532018</v>
+        <v>1.05796488174054</v>
       </c>
       <c r="L13">
-        <v>1.021061685246265</v>
+        <v>1.055647278229129</v>
       </c>
       <c r="M13">
-        <v>1.026227610490261</v>
+        <v>1.066309429712452</v>
       </c>
       <c r="N13">
-        <v>1.021000887884985</v>
+        <v>1.05224111496154</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9903783947083957</v>
+        <v>1.044364637390764</v>
       </c>
       <c r="D14">
-        <v>1.007429537429474</v>
+        <v>1.054604763973953</v>
       </c>
       <c r="E14">
-        <v>1.006928608586361</v>
+        <v>1.052270599192091</v>
       </c>
       <c r="F14">
-        <v>1.01228710247522</v>
+        <v>1.06299137265228</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04251033067867</v>
+        <v>1.035819211356986</v>
       </c>
       <c r="J14">
-        <v>1.020193229814487</v>
+        <v>1.050873357390723</v>
       </c>
       <c r="K14">
-        <v>1.022229477481567</v>
+        <v>1.058107885447011</v>
       </c>
       <c r="L14">
-        <v>1.021737832806977</v>
+        <v>1.055782069734728</v>
       </c>
       <c r="M14">
-        <v>1.026997633356928</v>
+        <v>1.066464829515533</v>
       </c>
       <c r="N14">
-        <v>1.021642021218622</v>
+        <v>1.052365718095076</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9909869167528964</v>
+        <v>1.044478545175061</v>
       </c>
       <c r="D15">
-        <v>1.007968906660852</v>
+        <v>1.054712360336667</v>
       </c>
       <c r="E15">
-        <v>1.007441063196486</v>
+        <v>1.052373168661356</v>
       </c>
       <c r="F15">
-        <v>1.012857457668887</v>
+        <v>1.063106460185812</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042638738232408</v>
+        <v>1.035834765436851</v>
       </c>
       <c r="J15">
-        <v>1.020586126878792</v>
+        <v>1.050950012862467</v>
       </c>
       <c r="K15">
-        <v>1.022670988294542</v>
+        <v>1.058195994294322</v>
       </c>
       <c r="L15">
-        <v>1.022152847605465</v>
+        <v>1.055865119305996</v>
       </c>
       <c r="M15">
-        <v>1.027470303428551</v>
+        <v>1.066560581956522</v>
       </c>
       <c r="N15">
-        <v>1.022035476241825</v>
+        <v>1.052442482426383</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9944931987164706</v>
+        <v>1.045141633261985</v>
       </c>
       <c r="D16">
-        <v>1.011079489183837</v>
+        <v>1.055338839020421</v>
       </c>
       <c r="E16">
-        <v>1.010396849870172</v>
+        <v>1.052970400859578</v>
       </c>
       <c r="F16">
-        <v>1.016147176411371</v>
+        <v>1.063776626431061</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043374581488532</v>
+        <v>1.03592474626602</v>
       </c>
       <c r="J16">
-        <v>1.022849527448326</v>
+        <v>1.051396062109348</v>
       </c>
       <c r="K16">
-        <v>1.025215441766208</v>
+        <v>1.058708818644263</v>
       </c>
       <c r="L16">
-        <v>1.024544755520589</v>
+        <v>1.056348504597237</v>
       </c>
       <c r="M16">
-        <v>1.030195042908029</v>
+        <v>1.067117986156476</v>
       </c>
       <c r="N16">
-        <v>1.024302091099783</v>
+        <v>1.052889165114357</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9966621167272464</v>
+        <v>1.045557655148536</v>
       </c>
       <c r="D17">
-        <v>1.013005997594477</v>
+        <v>1.055732007162434</v>
       </c>
       <c r="E17">
-        <v>1.012227850168539</v>
+        <v>1.053345234150022</v>
       </c>
       <c r="F17">
-        <v>1.018185021630126</v>
+        <v>1.064197274146244</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043826167260195</v>
+        <v>1.035980703655377</v>
       </c>
       <c r="J17">
-        <v>1.024249171939884</v>
+        <v>1.051675752201061</v>
       </c>
       <c r="K17">
-        <v>1.026789763796305</v>
+        <v>1.059030493174503</v>
       </c>
       <c r="L17">
-        <v>1.026024824738055</v>
+        <v>1.056651719921657</v>
       </c>
       <c r="M17">
-        <v>1.031881541350063</v>
+        <v>1.067467704437969</v>
       </c>
       <c r="N17">
-        <v>1.02570372324706</v>
+        <v>1.053169252398081</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9979165536260834</v>
+        <v>1.045800344073138</v>
       </c>
       <c r="D18">
-        <v>1.014121060786773</v>
+        <v>1.055961405489156</v>
       </c>
       <c r="E18">
-        <v>1.013287760949819</v>
+        <v>1.053563941900985</v>
       </c>
       <c r="F18">
-        <v>1.019364669594006</v>
+        <v>1.064442728071598</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044086037997604</v>
+        <v>1.036013167700836</v>
       </c>
       <c r="J18">
-        <v>1.025058502781307</v>
+        <v>1.051838852827678</v>
       </c>
       <c r="K18">
-        <v>1.027700418180345</v>
+        <v>1.059218117984794</v>
       </c>
       <c r="L18">
-        <v>1.026881005540011</v>
+        <v>1.056828580358418</v>
       </c>
       <c r="M18">
-        <v>1.032857310634864</v>
+        <v>1.067671715516483</v>
       </c>
       <c r="N18">
-        <v>1.026514203431109</v>
+        <v>1.053332584646296</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9983425068112303</v>
+        <v>1.045883099883932</v>
       </c>
       <c r="D19">
-        <v>1.014499827198708</v>
+        <v>1.056039636251055</v>
       </c>
       <c r="E19">
-        <v>1.013647814484559</v>
+        <v>1.053638528100891</v>
       </c>
       <c r="F19">
-        <v>1.019765398748079</v>
+        <v>1.064526437997303</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04417405445671</v>
+        <v>1.036024207417701</v>
       </c>
       <c r="J19">
-        <v>1.02533328443333</v>
+        <v>1.051894459493508</v>
       </c>
       <c r="K19">
-        <v>1.028009654968629</v>
+        <v>1.059282092761908</v>
       </c>
       <c r="L19">
-        <v>1.027171752130875</v>
+        <v>1.056888885197735</v>
       </c>
       <c r="M19">
-        <v>1.033188697572826</v>
+        <v>1.067741282476001</v>
       </c>
       <c r="N19">
-        <v>1.026789375304597</v>
+        <v>1.05338827027997</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9964305218001724</v>
+        <v>1.045513016793887</v>
       </c>
       <c r="D20">
-        <v>1.012800200450781</v>
+        <v>1.055689816698006</v>
       </c>
       <c r="E20">
-        <v>1.012032242259888</v>
+        <v>1.053305010444707</v>
       </c>
       <c r="F20">
-        <v>1.01796731627114</v>
+        <v>1.064152132567573</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043778083175598</v>
+        <v>1.035974718051214</v>
       </c>
       <c r="J20">
-        <v>1.024099737683796</v>
+        <v>1.051645748016179</v>
       </c>
       <c r="K20">
-        <v>1.026621646974722</v>
+        <v>1.058995980797843</v>
       </c>
       <c r="L20">
-        <v>1.025866768054096</v>
+        <v>1.056619187777297</v>
       </c>
       <c r="M20">
-        <v>1.031701422003231</v>
+        <v>1.067430180250846</v>
       </c>
       <c r="N20">
-        <v>1.025554076777188</v>
+        <v>1.053139205603815</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9900869165825531</v>
+        <v>1.044310197903967</v>
       </c>
       <c r="D21">
-        <v>1.007171233030158</v>
+        <v>1.054553343200154</v>
       </c>
       <c r="E21">
-        <v>1.006683201270667</v>
+        <v>1.052221581191882</v>
       </c>
       <c r="F21">
-        <v>1.012013966582167</v>
+        <v>1.062936373055634</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042448753052403</v>
+        <v>1.035811767708448</v>
       </c>
       <c r="J21">
-        <v>1.020005027209306</v>
+        <v>1.050836718523421</v>
       </c>
       <c r="K21">
-        <v>1.022018006052625</v>
+        <v>1.058065774514104</v>
       </c>
       <c r="L21">
-        <v>1.021539054992569</v>
+        <v>1.055742376979457</v>
       </c>
       <c r="M21">
-        <v>1.026771250187058</v>
+        <v>1.066419067001708</v>
       </c>
       <c r="N21">
-        <v>1.021453551344155</v>
+        <v>1.05232902719638</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9859952102730304</v>
+        <v>1.04355421103275</v>
       </c>
       <c r="D22">
-        <v>1.003548619077675</v>
+        <v>1.05383943074145</v>
       </c>
       <c r="E22">
-        <v>1.003241983812738</v>
+        <v>1.051541054751427</v>
       </c>
       <c r="F22">
-        <v>1.008183855615646</v>
+        <v>1.062172855374525</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041579629552877</v>
+        <v>1.035707740166954</v>
       </c>
       <c r="J22">
-        <v>1.017362636413588</v>
+        <v>1.050327710475379</v>
       </c>
       <c r="K22">
-        <v>1.01905010339697</v>
+        <v>1.057480896718902</v>
       </c>
       <c r="L22">
-        <v>1.018749488796443</v>
+        <v>1.055191094263007</v>
       </c>
       <c r="M22">
-        <v>1.023594913581702</v>
+        <v>1.065783579541666</v>
       </c>
       <c r="N22">
-        <v>1.018807408050421</v>
+        <v>1.051819296298526</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9881744536065296</v>
+        <v>1.043954948124807</v>
       </c>
       <c r="D23">
-        <v>1.005477233041135</v>
+        <v>1.054217829050929</v>
       </c>
       <c r="E23">
-        <v>1.005073904865242</v>
+        <v>1.051901751161271</v>
       </c>
       <c r="F23">
-        <v>1.010222820800321</v>
+        <v>1.062577527136331</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042043603215913</v>
+        <v>1.035763036255559</v>
       </c>
       <c r="J23">
-        <v>1.018770070552245</v>
+        <v>1.05059757731315</v>
       </c>
       <c r="K23">
-        <v>1.020630644537107</v>
+        <v>1.057790953303703</v>
       </c>
       <c r="L23">
-        <v>1.020235014306775</v>
+        <v>1.055483339256619</v>
       </c>
       <c r="M23">
-        <v>1.025286260820657</v>
+        <v>1.066120440640959</v>
       </c>
       <c r="N23">
-        <v>1.02021684090699</v>
+        <v>1.052089546378161</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9965352024339973</v>
+        <v>1.045533186850834</v>
       </c>
       <c r="D24">
-        <v>1.012893217952056</v>
+        <v>1.055708880536461</v>
       </c>
       <c r="E24">
-        <v>1.01212065397078</v>
+        <v>1.053323185577553</v>
       </c>
       <c r="F24">
-        <v>1.018065715679268</v>
+        <v>1.064172529803384</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043799821201535</v>
+        <v>1.035977423228663</v>
       </c>
       <c r="J24">
-        <v>1.024167282358434</v>
+        <v>1.051659305732768</v>
       </c>
       <c r="K24">
-        <v>1.026697635231346</v>
+        <v>1.059011575462952</v>
       </c>
       <c r="L24">
-        <v>1.025938209018116</v>
+        <v>1.056633887652739</v>
       </c>
       <c r="M24">
-        <v>1.031782834657009</v>
+        <v>1.067447135734403</v>
       </c>
       <c r="N24">
-        <v>1.025621717373012</v>
+        <v>1.053152782573917</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005822382977768</v>
+        <v>1.047365837753501</v>
       </c>
       <c r="D25">
-        <v>1.021162641098965</v>
+        <v>1.057441907209152</v>
       </c>
       <c r="E25">
-        <v>1.019983243718947</v>
+        <v>1.054975575634982</v>
       </c>
       <c r="F25">
-        <v>1.026816716581757</v>
+        <v>1.06602725429319</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045699907575465</v>
+        <v>1.036219343261541</v>
       </c>
       <c r="J25">
-        <v>1.030155377020331</v>
+        <v>1.052889895663125</v>
       </c>
       <c r="K25">
-        <v>1.033441082587345</v>
+        <v>1.060427940130624</v>
       </c>
       <c r="L25">
-        <v>1.032279068137926</v>
+        <v>1.057969036357195</v>
       </c>
       <c r="M25">
-        <v>1.039012526856926</v>
+        <v>1.068987722740071</v>
       </c>
       <c r="N25">
-        <v>1.031618315816173</v>
+        <v>1.054385120083125</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04882852104406</v>
+        <v>1.012929162000059</v>
       </c>
       <c r="D2">
-        <v>1.058826362515135</v>
+        <v>1.027513723027338</v>
       </c>
       <c r="E2">
-        <v>1.05629583397662</v>
+        <v>1.02602547250056</v>
       </c>
       <c r="F2">
-        <v>1.067509638405109</v>
+        <v>1.033542344378535</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036406751670986</v>
+        <v>1.047111287971481</v>
       </c>
       <c r="J2">
-        <v>1.053870200571587</v>
+        <v>1.034729923076219</v>
       </c>
       <c r="K2">
-        <v>1.061557536056161</v>
+        <v>1.038602607059146</v>
       </c>
       <c r="L2">
-        <v>1.059033935497222</v>
+        <v>1.037133757801874</v>
       </c>
       <c r="M2">
-        <v>1.070217309409141</v>
+        <v>1.044553352164085</v>
       </c>
       <c r="N2">
-        <v>1.055366817137001</v>
+        <v>1.036199358252176</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049891122660022</v>
+        <v>1.017930076100079</v>
       </c>
       <c r="D3">
-        <v>1.059832868492836</v>
+        <v>1.031995242149368</v>
       </c>
       <c r="E3">
-        <v>1.057255794729825</v>
+        <v>1.030290999916233</v>
       </c>
       <c r="F3">
-        <v>1.068587750771924</v>
+        <v>1.038290984134408</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036539604502645</v>
+        <v>1.048078837898932</v>
       </c>
       <c r="J3">
-        <v>1.054581282238466</v>
+        <v>1.037943603253476</v>
       </c>
       <c r="K3">
-        <v>1.062377664003399</v>
+        <v>1.042234472504175</v>
       </c>
       <c r="L3">
-        <v>1.059807134467283</v>
+        <v>1.040550433998796</v>
       </c>
       <c r="M3">
-        <v>1.071110568008695</v>
+        <v>1.048456289969774</v>
       </c>
       <c r="N3">
-        <v>1.056078908621408</v>
+        <v>1.039417602223891</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050578959081715</v>
+        <v>1.021096873463402</v>
       </c>
       <c r="D4">
-        <v>1.060484730195321</v>
+        <v>1.034838563394615</v>
       </c>
       <c r="E4">
-        <v>1.057877569342166</v>
+        <v>1.032998142003976</v>
       </c>
       <c r="F4">
-        <v>1.069286178914241</v>
+        <v>1.041305129047652</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036624076224236</v>
+        <v>1.048679369181908</v>
       </c>
       <c r="J4">
-        <v>1.055041071068849</v>
+        <v>1.039975892863727</v>
       </c>
       <c r="K4">
-        <v>1.062908312681881</v>
+        <v>1.044533942170105</v>
       </c>
       <c r="L4">
-        <v>1.060307438448018</v>
+        <v>1.042713975369024</v>
       </c>
       <c r="M4">
-        <v>1.071688781656671</v>
+        <v>1.050929341907815</v>
       </c>
       <c r="N4">
-        <v>1.056539350404669</v>
+        <v>1.041452777918496</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050868188130886</v>
+        <v>1.022412278708874</v>
       </c>
       <c r="D5">
-        <v>1.060758912318741</v>
+        <v>1.036020865618379</v>
       </c>
       <c r="E5">
-        <v>1.058139110171916</v>
+        <v>1.034124018506994</v>
       </c>
       <c r="F5">
-        <v>1.069579993215742</v>
+        <v>1.042558791660161</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036659230369237</v>
+        <v>1.048925849850635</v>
       </c>
       <c r="J5">
-        <v>1.055234287177611</v>
+        <v>1.040819352528104</v>
       </c>
       <c r="K5">
-        <v>1.063131389952974</v>
+        <v>1.045488948143834</v>
       </c>
       <c r="L5">
-        <v>1.060517763954234</v>
+        <v>1.043612602122271</v>
       </c>
       <c r="M5">
-        <v>1.071931913767783</v>
+        <v>1.051956912190577</v>
       </c>
       <c r="N5">
-        <v>1.056732840902468</v>
+        <v>1.042297435392343</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050916754629007</v>
+        <v>1.022632225468563</v>
       </c>
       <c r="D6">
-        <v>1.060804956864716</v>
+        <v>1.036218629366671</v>
       </c>
       <c r="E6">
-        <v>1.058183032616775</v>
+        <v>1.034312355508289</v>
       </c>
       <c r="F6">
-        <v>1.069629337354825</v>
+        <v>1.042768511360212</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036665111915</v>
+        <v>1.048966887891104</v>
       </c>
       <c r="J6">
-        <v>1.055266724359797</v>
+        <v>1.040960343715029</v>
       </c>
       <c r="K6">
-        <v>1.063168845157865</v>
+        <v>1.045648624087804</v>
       </c>
       <c r="L6">
-        <v>1.060553078383502</v>
+        <v>1.043762855816645</v>
       </c>
       <c r="M6">
-        <v>1.071972739700076</v>
+        <v>1.052128748708912</v>
       </c>
       <c r="N6">
-        <v>1.056765324149173</v>
+        <v>1.042438626802924</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050582823528544</v>
+        <v>1.021114511699715</v>
       </c>
       <c r="D7">
-        <v>1.06048839328302</v>
+        <v>1.034854411928942</v>
       </c>
       <c r="E7">
-        <v>1.057881063487586</v>
+        <v>1.033013233380308</v>
       </c>
       <c r="F7">
-        <v>1.069290104109372</v>
+        <v>1.041321932847854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03662454736186</v>
+        <v>1.048682686007616</v>
       </c>
       <c r="J7">
-        <v>1.055043653143397</v>
+        <v>1.0399872056133</v>
       </c>
       <c r="K7">
-        <v>1.062911293481136</v>
+        <v>1.044546748403904</v>
       </c>
       <c r="L7">
-        <v>1.060310248837344</v>
+        <v>1.042726025291127</v>
       </c>
       <c r="M7">
-        <v>1.071692030199732</v>
+        <v>1.050943119325792</v>
       </c>
       <c r="N7">
-        <v>1.056541936146059</v>
+        <v>1.041464106733471</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049187577879113</v>
+        <v>1.014633950113789</v>
       </c>
       <c r="D8">
-        <v>1.059166394430653</v>
+        <v>1.029040286802851</v>
       </c>
       <c r="E8">
-        <v>1.056620129311719</v>
+        <v>1.027478278415614</v>
       </c>
       <c r="F8">
-        <v>1.067873821949647</v>
+        <v>1.035159619896129</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03645195881928</v>
+        <v>1.04744364523676</v>
       </c>
       <c r="J8">
-        <v>1.054110581704348</v>
+        <v>1.035826004374585</v>
       </c>
       <c r="K8">
-        <v>1.061834707825495</v>
+        <v>1.039840748261806</v>
       </c>
       <c r="L8">
-        <v>1.059295242950705</v>
+        <v>1.038298471205619</v>
       </c>
       <c r="M8">
-        <v>1.070519145378617</v>
+        <v>1.045883496350709</v>
       </c>
       <c r="N8">
-        <v>1.055607539638542</v>
+        <v>1.0372969961117</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046730989929834</v>
+        <v>1.002654629398393</v>
       </c>
       <c r="D9">
-        <v>1.056841370129058</v>
+        <v>1.01833823438173</v>
       </c>
       <c r="E9">
-        <v>1.054402946771389</v>
+        <v>1.017297201405811</v>
       </c>
       <c r="F9">
-        <v>1.065384436394245</v>
+        <v>1.023827105230982</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036136417069307</v>
+        <v>1.045058411521681</v>
       </c>
       <c r="J9">
-        <v>1.052463894238444</v>
+        <v>1.028113992866779</v>
       </c>
       <c r="K9">
-        <v>1.059937426660132</v>
+        <v>1.031140631558381</v>
       </c>
       <c r="L9">
-        <v>1.057506637725867</v>
+        <v>1.030115741503429</v>
       </c>
       <c r="M9">
-        <v>1.068454046524498</v>
+        <v>1.036545080845266</v>
       </c>
       <c r="N9">
-        <v>1.053958513687558</v>
+        <v>1.029574032662973</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045094622896023</v>
+        <v>0.9942466248494612</v>
       </c>
       <c r="D10">
-        <v>1.055294416718524</v>
+        <v>1.010860588289514</v>
       </c>
       <c r="E10">
-        <v>1.052928051092529</v>
+        <v>1.010188818776375</v>
       </c>
       <c r="F10">
-        <v>1.063729102356286</v>
+        <v>1.015915644111366</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035918398876922</v>
+        <v>1.043323065227459</v>
       </c>
       <c r="J10">
-        <v>1.051364449320434</v>
+        <v>1.022690385218664</v>
       </c>
       <c r="K10">
-        <v>1.058672465996577</v>
+        <v>1.025036481648877</v>
       </c>
       <c r="L10">
-        <v>1.056314238365273</v>
+        <v>1.024376515912795</v>
       </c>
       <c r="M10">
-        <v>1.067078468195239</v>
+        <v>1.030003362128839</v>
       </c>
       <c r="N10">
-        <v>1.052857507431657</v>
+        <v>1.024142722869901</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044386380138244</v>
+        <v>0.9904946914459483</v>
       </c>
       <c r="D11">
-        <v>1.054625301487968</v>
+        <v>1.007532607227236</v>
       </c>
       <c r="E11">
-        <v>1.052290177107781</v>
+        <v>1.007026533513129</v>
       </c>
       <c r="F11">
-        <v>1.063013339776131</v>
+        <v>1.012396091792398</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035822182500949</v>
+        <v>1.042534886675011</v>
       </c>
       <c r="J11">
-        <v>1.050887990113396</v>
+        <v>1.02026831936501</v>
       </c>
       <c r="K11">
-        <v>1.058124703999186</v>
+        <v>1.022313854090534</v>
       </c>
       <c r="L11">
-        <v>1.055797922523215</v>
+        <v>1.021817145191671</v>
       </c>
       <c r="M11">
-        <v>1.066483106752649</v>
+        <v>1.027087962002375</v>
       </c>
       <c r="N11">
-        <v>1.052380371597894</v>
+        <v>1.02171721740492</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044123354455663</v>
+        <v>0.9890833132129937</v>
       </c>
       <c r="D12">
-        <v>1.054376871763306</v>
+        <v>1.006282099156473</v>
       </c>
       <c r="E12">
-        <v>1.052053357815836</v>
+        <v>1.00583849948155</v>
       </c>
       <c r="F12">
-        <v>1.062747625505037</v>
+        <v>1.011073817517896</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035786171346674</v>
+        <v>1.042236383483608</v>
       </c>
       <c r="J12">
-        <v>1.050710953314083</v>
+        <v>1.019356982033128</v>
       </c>
       <c r="K12">
-        <v>1.057921237286202</v>
+        <v>1.021289925672079</v>
       </c>
       <c r="L12">
-        <v>1.055606140324486</v>
+        <v>1.020854691419448</v>
       </c>
       <c r="M12">
-        <v>1.066262004381355</v>
+        <v>1.025991892013179</v>
       </c>
       <c r="N12">
-        <v>1.05220308338602</v>
+        <v>1.020804585869495</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04417977222268</v>
+        <v>0.9893868790635938</v>
       </c>
       <c r="D13">
-        <v>1.054430155822305</v>
+        <v>1.006551000327293</v>
       </c>
       <c r="E13">
-        <v>1.052104151123066</v>
+        <v>1.006093956857875</v>
       </c>
       <c r="F13">
-        <v>1.062804615241815</v>
+        <v>1.011358141116792</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035793908170422</v>
+        <v>1.042300676758562</v>
       </c>
       <c r="J13">
-        <v>1.050748930956994</v>
+        <v>1.019553005672565</v>
       </c>
       <c r="K13">
-        <v>1.05796488174054</v>
+        <v>1.021510144532017</v>
       </c>
       <c r="L13">
-        <v>1.055647278229129</v>
+        <v>1.021061685246263</v>
       </c>
       <c r="M13">
-        <v>1.066309429712452</v>
+        <v>1.02622761049026</v>
       </c>
       <c r="N13">
-        <v>1.05224111496154</v>
+        <v>1.021000887884985</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044364637390764</v>
+        <v>0.9903783947083946</v>
       </c>
       <c r="D14">
-        <v>1.054604763973953</v>
+        <v>1.007429537429473</v>
       </c>
       <c r="E14">
-        <v>1.052270599192091</v>
+        <v>1.00692860858636</v>
       </c>
       <c r="F14">
-        <v>1.06299137265228</v>
+        <v>1.01228710247522</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035819211356986</v>
+        <v>1.042510330678669</v>
       </c>
       <c r="J14">
-        <v>1.050873357390723</v>
+        <v>1.020193229814486</v>
       </c>
       <c r="K14">
-        <v>1.058107885447011</v>
+        <v>1.022229477481566</v>
       </c>
       <c r="L14">
-        <v>1.055782069734728</v>
+        <v>1.021737832806977</v>
       </c>
       <c r="M14">
-        <v>1.066464829515533</v>
+        <v>1.026997633356927</v>
       </c>
       <c r="N14">
-        <v>1.052365718095076</v>
+        <v>1.021642021218622</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044478545175061</v>
+        <v>0.9909869167528979</v>
       </c>
       <c r="D15">
-        <v>1.054712360336667</v>
+        <v>1.007968906660854</v>
       </c>
       <c r="E15">
-        <v>1.052373168661356</v>
+        <v>1.007441063196487</v>
       </c>
       <c r="F15">
-        <v>1.063106460185812</v>
+        <v>1.012857457668889</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035834765436851</v>
+        <v>1.042638738232408</v>
       </c>
       <c r="J15">
-        <v>1.050950012862467</v>
+        <v>1.020586126878793</v>
       </c>
       <c r="K15">
-        <v>1.058195994294322</v>
+        <v>1.022670988294544</v>
       </c>
       <c r="L15">
-        <v>1.055865119305996</v>
+        <v>1.022152847605466</v>
       </c>
       <c r="M15">
-        <v>1.066560581956522</v>
+        <v>1.027470303428553</v>
       </c>
       <c r="N15">
-        <v>1.052442482426383</v>
+        <v>1.022035476241826</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045141633261985</v>
+        <v>0.9944931987164709</v>
       </c>
       <c r="D16">
-        <v>1.055338839020421</v>
+        <v>1.011079489183837</v>
       </c>
       <c r="E16">
-        <v>1.052970400859578</v>
+        <v>1.010396849870172</v>
       </c>
       <c r="F16">
-        <v>1.063776626431061</v>
+        <v>1.016147176411372</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03592474626602</v>
+        <v>1.043374581488532</v>
       </c>
       <c r="J16">
-        <v>1.051396062109348</v>
+        <v>1.022849527448326</v>
       </c>
       <c r="K16">
-        <v>1.058708818644263</v>
+        <v>1.025215441766209</v>
       </c>
       <c r="L16">
-        <v>1.056348504597237</v>
+        <v>1.024544755520589</v>
       </c>
       <c r="M16">
-        <v>1.067117986156476</v>
+        <v>1.03019504290803</v>
       </c>
       <c r="N16">
-        <v>1.052889165114357</v>
+        <v>1.024302091099783</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045557655148536</v>
+        <v>0.9966621167272459</v>
       </c>
       <c r="D17">
-        <v>1.055732007162434</v>
+        <v>1.013005997594476</v>
       </c>
       <c r="E17">
-        <v>1.053345234150022</v>
+        <v>1.012227850168538</v>
       </c>
       <c r="F17">
-        <v>1.064197274146244</v>
+        <v>1.018185021630125</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035980703655377</v>
+        <v>1.043826167260194</v>
       </c>
       <c r="J17">
-        <v>1.051675752201061</v>
+        <v>1.024249171939883</v>
       </c>
       <c r="K17">
-        <v>1.059030493174503</v>
+        <v>1.026789763796304</v>
       </c>
       <c r="L17">
-        <v>1.056651719921657</v>
+        <v>1.026024824738054</v>
       </c>
       <c r="M17">
-        <v>1.067467704437969</v>
+        <v>1.031881541350063</v>
       </c>
       <c r="N17">
-        <v>1.053169252398081</v>
+        <v>1.02570372324706</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045800344073138</v>
+        <v>0.9979165536260823</v>
       </c>
       <c r="D18">
-        <v>1.055961405489156</v>
+        <v>1.014121060786771</v>
       </c>
       <c r="E18">
-        <v>1.053563941900985</v>
+        <v>1.013287760949818</v>
       </c>
       <c r="F18">
-        <v>1.064442728071598</v>
+        <v>1.019364669594005</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036013167700836</v>
+        <v>1.044086037997604</v>
       </c>
       <c r="J18">
-        <v>1.051838852827678</v>
+        <v>1.025058502781306</v>
       </c>
       <c r="K18">
-        <v>1.059218117984794</v>
+        <v>1.027700418180344</v>
       </c>
       <c r="L18">
-        <v>1.056828580358418</v>
+        <v>1.02688100554001</v>
       </c>
       <c r="M18">
-        <v>1.067671715516483</v>
+        <v>1.032857310634864</v>
       </c>
       <c r="N18">
-        <v>1.053332584646296</v>
+        <v>1.026514203431108</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045883099883932</v>
+        <v>0.9983425068112299</v>
       </c>
       <c r="D19">
-        <v>1.056039636251055</v>
+        <v>1.014499827198708</v>
       </c>
       <c r="E19">
-        <v>1.053638528100891</v>
+        <v>1.013647814484558</v>
       </c>
       <c r="F19">
-        <v>1.064526437997303</v>
+        <v>1.019765398748079</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036024207417701</v>
+        <v>1.04417405445671</v>
       </c>
       <c r="J19">
-        <v>1.051894459493508</v>
+        <v>1.02533328443333</v>
       </c>
       <c r="K19">
-        <v>1.059282092761908</v>
+        <v>1.028009654968629</v>
       </c>
       <c r="L19">
-        <v>1.056888885197735</v>
+        <v>1.027171752130875</v>
       </c>
       <c r="M19">
-        <v>1.067741282476001</v>
+        <v>1.033188697572826</v>
       </c>
       <c r="N19">
-        <v>1.05338827027997</v>
+        <v>1.026789375304597</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045513016793887</v>
+        <v>0.9964305218001727</v>
       </c>
       <c r="D20">
-        <v>1.055689816698006</v>
+        <v>1.012800200450781</v>
       </c>
       <c r="E20">
-        <v>1.053305010444707</v>
+        <v>1.012032242259888</v>
       </c>
       <c r="F20">
-        <v>1.064152132567573</v>
+        <v>1.01796731627114</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035974718051214</v>
+        <v>1.043778083175598</v>
       </c>
       <c r="J20">
-        <v>1.051645748016179</v>
+        <v>1.024099737683796</v>
       </c>
       <c r="K20">
-        <v>1.058995980797843</v>
+        <v>1.026621646974722</v>
       </c>
       <c r="L20">
-        <v>1.056619187777297</v>
+        <v>1.025866768054096</v>
       </c>
       <c r="M20">
-        <v>1.067430180250846</v>
+        <v>1.031701422003231</v>
       </c>
       <c r="N20">
-        <v>1.053139205603815</v>
+        <v>1.025554076777188</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044310197903967</v>
+        <v>0.9900869165825527</v>
       </c>
       <c r="D21">
-        <v>1.054553343200154</v>
+        <v>1.007171233030157</v>
       </c>
       <c r="E21">
-        <v>1.052221581191882</v>
+        <v>1.006683201270667</v>
       </c>
       <c r="F21">
-        <v>1.062936373055634</v>
+        <v>1.012013966582167</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035811767708448</v>
+        <v>1.042448753052402</v>
       </c>
       <c r="J21">
-        <v>1.050836718523421</v>
+        <v>1.020005027209306</v>
       </c>
       <c r="K21">
-        <v>1.058065774514104</v>
+        <v>1.022018006052624</v>
       </c>
       <c r="L21">
-        <v>1.055742376979457</v>
+        <v>1.021539054992569</v>
       </c>
       <c r="M21">
-        <v>1.066419067001708</v>
+        <v>1.026771250187058</v>
       </c>
       <c r="N21">
-        <v>1.05232902719638</v>
+        <v>1.021453551344154</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04355421103275</v>
+        <v>0.9859952102730298</v>
       </c>
       <c r="D22">
-        <v>1.05383943074145</v>
+        <v>1.003548619077674</v>
       </c>
       <c r="E22">
-        <v>1.051541054751427</v>
+        <v>1.003241983812737</v>
       </c>
       <c r="F22">
-        <v>1.062172855374525</v>
+        <v>1.008183855615645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035707740166954</v>
+        <v>1.041579629552877</v>
       </c>
       <c r="J22">
-        <v>1.050327710475379</v>
+        <v>1.017362636413588</v>
       </c>
       <c r="K22">
-        <v>1.057480896718902</v>
+        <v>1.01905010339697</v>
       </c>
       <c r="L22">
-        <v>1.055191094263007</v>
+        <v>1.018749488796442</v>
       </c>
       <c r="M22">
-        <v>1.065783579541666</v>
+        <v>1.023594913581701</v>
       </c>
       <c r="N22">
-        <v>1.051819296298526</v>
+        <v>1.01880740805042</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043954948124807</v>
+        <v>0.9881744536065283</v>
       </c>
       <c r="D23">
-        <v>1.054217829050929</v>
+        <v>1.005477233041133</v>
       </c>
       <c r="E23">
-        <v>1.051901751161271</v>
+        <v>1.005073904865241</v>
       </c>
       <c r="F23">
-        <v>1.062577527136331</v>
+        <v>1.010222820800319</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035763036255559</v>
+        <v>1.042043603215912</v>
       </c>
       <c r="J23">
-        <v>1.05059757731315</v>
+        <v>1.018770070552244</v>
       </c>
       <c r="K23">
-        <v>1.057790953303703</v>
+        <v>1.020630644537105</v>
       </c>
       <c r="L23">
-        <v>1.055483339256619</v>
+        <v>1.020235014306774</v>
       </c>
       <c r="M23">
-        <v>1.066120440640959</v>
+        <v>1.025286260820655</v>
       </c>
       <c r="N23">
-        <v>1.052089546378161</v>
+        <v>1.020216840906988</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045533186850834</v>
+        <v>0.9965352024339963</v>
       </c>
       <c r="D24">
-        <v>1.055708880536461</v>
+        <v>1.012893217952055</v>
       </c>
       <c r="E24">
-        <v>1.053323185577553</v>
+        <v>1.012120653970779</v>
       </c>
       <c r="F24">
-        <v>1.064172529803384</v>
+        <v>1.018065715679267</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035977423228663</v>
+        <v>1.043799821201534</v>
       </c>
       <c r="J24">
-        <v>1.051659305732768</v>
+        <v>1.024167282358433</v>
       </c>
       <c r="K24">
-        <v>1.059011575462952</v>
+        <v>1.026697635231345</v>
       </c>
       <c r="L24">
-        <v>1.056633887652739</v>
+        <v>1.025938209018115</v>
       </c>
       <c r="M24">
-        <v>1.067447135734403</v>
+        <v>1.031782834657007</v>
       </c>
       <c r="N24">
-        <v>1.053152782573917</v>
+        <v>1.025621717373012</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047365837753501</v>
+        <v>1.005822382977767</v>
       </c>
       <c r="D25">
-        <v>1.057441907209152</v>
+        <v>1.021162641098964</v>
       </c>
       <c r="E25">
-        <v>1.054975575634982</v>
+        <v>1.019983243718946</v>
       </c>
       <c r="F25">
-        <v>1.06602725429319</v>
+        <v>1.026816716581755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036219343261541</v>
+        <v>1.045699907575465</v>
       </c>
       <c r="J25">
-        <v>1.052889895663125</v>
+        <v>1.030155377020331</v>
       </c>
       <c r="K25">
-        <v>1.060427940130624</v>
+        <v>1.033441082587344</v>
       </c>
       <c r="L25">
-        <v>1.057969036357195</v>
+        <v>1.032279068137925</v>
       </c>
       <c r="M25">
-        <v>1.068987722740071</v>
+        <v>1.039012526856925</v>
       </c>
       <c r="N25">
-        <v>1.054385120083125</v>
+        <v>1.031618315816172</v>
       </c>
     </row>
   </sheetData>
